--- a/src/test/resources/data/import-with-plural-atts-en.xlsx
+++ b/src/test/resources/data/import-with-plural-atts-en.xlsx
@@ -71,10 +71,10 @@
     <t xml:space="preserve">Building</t>
   </si>
   <si>
-    <t xml:space="preserve">Construction, Structure, House</t>
+    <t xml:space="preserve">Construction; Structure; House</t>
   </si>
   <si>
-    <t xml:space="preserve">bldng, strctr, haus</t>
+    <t xml:space="preserve">bldng; strctr; haus</t>
   </si>
   <si>
     <t xml:space="preserve">Definition of term Building</t>
@@ -241,10 +241,10 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:N3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
@@ -17327,10 +17327,10 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:N3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="75.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.37"/>
